--- a/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6826,13 +6826,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>39416</v>
+        <v>39417</v>
       </c>
       <c r="D126" t="n">
         <v>4169</v>
       </c>
       <c r="E126" t="n">
-        <v>225062002</v>
+        <v>225063457</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6979,13 +6979,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5603</v>
+        <v>5606</v>
       </c>
       <c r="D129" t="n">
         <v>1273</v>
       </c>
       <c r="E129" t="n">
-        <v>11860856</v>
+        <v>11870241</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -9835,13 +9835,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>29884</v>
+        <v>29885</v>
       </c>
       <c r="D185" t="n">
         <v>3706</v>
       </c>
       <c r="E185" t="n">
-        <v>96464978</v>
+        <v>96474978</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -10243,13 +10243,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28018</v>
+        <v>28019</v>
       </c>
       <c r="D193" t="n">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="E193" t="n">
-        <v>247804348</v>
+        <v>247864342</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -21871,13 +21871,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>6049</v>
+        <v>6050</v>
       </c>
       <c r="D421" t="n">
         <v>1533</v>
       </c>
       <c r="E421" t="n">
-        <v>17135948</v>
+        <v>17145948</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22060</v>
+        <v>22061</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132060343</v>
+        <v>132065896</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -34774,13 +34774,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>6918</v>
+        <v>6919</v>
       </c>
       <c r="D674" t="n">
         <v>1532</v>
       </c>
       <c r="E674" t="n">
-        <v>19331306</v>
+        <v>19334806</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17545</v>
+        <v>17547</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38585419</v>
+        <v>38603446</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19697</v>
+        <v>19700</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56402512</v>
+        <v>56409367</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36457,13 +36457,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>5961</v>
+        <v>5962</v>
       </c>
       <c r="D707" t="n">
         <v>1306</v>
       </c>
       <c r="E707" t="n">
-        <v>11511893</v>
+        <v>11514574</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9687</v>
+        <v>9689</v>
       </c>
       <c r="D708" t="n">
         <v>1445</v>
       </c>
       <c r="E708" t="n">
-        <v>31911349</v>
+        <v>31925215</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40343</v>
+        <v>40344</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286593248</v>
+        <v>286611342</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108534</v>
+        <v>108537</v>
       </c>
       <c r="D852" t="n">
         <v>19715</v>
       </c>
       <c r="E852" t="n">
-        <v>559471381</v>
+        <v>559490701</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182077</v>
+        <v>182088</v>
       </c>
       <c r="D854" t="n">
-        <v>17494</v>
+        <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1646276369</v>
+        <v>1646404905</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59992</v>
+        <v>59996</v>
       </c>
       <c r="D855" t="n">
-        <v>9811</v>
+        <v>9812</v>
       </c>
       <c r="E855" t="n">
-        <v>286482644</v>
+        <v>286488644</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23223</v>
+        <v>23224</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82699489</v>
+        <v>82703852</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183787</v>
+        <v>183791</v>
       </c>
       <c r="D858" t="n">
         <v>35380</v>
       </c>
       <c r="E858" t="n">
-        <v>552131715</v>
+        <v>552164010</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51269</v>
+        <v>51275</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>421771933</v>
+        <v>422311944</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114897</v>
+        <v>114902</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>417698002</v>
+        <v>417795270</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11659</v>
+        <v>11660</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54346838</v>
+        <v>54413360</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46963,13 +46963,13 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22148</v>
+        <v>22149</v>
       </c>
       <c r="D913" t="n">
         <v>2798</v>
       </c>
       <c r="E913" t="n">
-        <v>64998663</v>
+        <v>65000575</v>
       </c>
       <c r="F913" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19695</v>
+        <v>19700</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>65984473</v>
+        <v>66017381</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13094</v>
+        <v>13100</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32950273</v>
+        <v>32991663</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4749</v>
+        <v>4750</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11632370</v>
+        <v>11633084</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11114</v>
+        <v>11117</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>43983889</v>
+        <v>44051783</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6416</v>
+        <v>6418</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>18539789</v>
+        <v>18550633</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11065015</v>
+        <v>11065449</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50788,13 +50788,13 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>4711</v>
+        <v>4712</v>
       </c>
       <c r="D988" t="n">
         <v>521</v>
       </c>
       <c r="E988" t="n">
-        <v>11655990</v>
+        <v>11657490</v>
       </c>
       <c r="F988" t="inlineStr">
         <is>
@@ -63640,13 +63640,13 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D1240" t="n">
         <v>407</v>
       </c>
       <c r="E1240" t="n">
-        <v>4938486</v>
+        <v>4943462</v>
       </c>
       <c r="F1240" t="inlineStr">
         <is>
@@ -74554,13 +74554,13 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>19736</v>
+        <v>19737</v>
       </c>
       <c r="D1454" t="n">
         <v>2199</v>
       </c>
       <c r="E1454" t="n">
-        <v>115288492</v>
+        <v>115309309</v>
       </c>
       <c r="F1454" t="inlineStr">
         <is>
